--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -543,10 +543,10 @@
         <v>0.702361</v>
       </c>
       <c r="I2">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="J2">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N2">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O2">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P2">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q2">
-        <v>21.67774942687322</v>
+        <v>42.07155063714045</v>
       </c>
       <c r="R2">
-        <v>195.099744841859</v>
+        <v>378.643955734264</v>
       </c>
       <c r="S2">
-        <v>0.06306500845362249</v>
+        <v>0.07996574208810341</v>
       </c>
       <c r="T2">
-        <v>0.06306500845362251</v>
+        <v>0.07996574208810339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.702361</v>
       </c>
       <c r="I3">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="J3">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>45.42519</v>
       </c>
       <c r="O3">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P3">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q3">
         <v>3.544986874843334</v>
@@ -635,10 +635,10 @@
         <v>31.90488187359</v>
       </c>
       <c r="S3">
-        <v>0.01031309214012916</v>
+        <v>0.00673798568976875</v>
       </c>
       <c r="T3">
-        <v>0.01031309214012916</v>
+        <v>0.006737985689768751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.702361</v>
       </c>
       <c r="I4">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="J4">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N4">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O4">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P4">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q4">
-        <v>7.843690293445112</v>
+        <v>8.463327761145891</v>
       </c>
       <c r="R4">
-        <v>70.59321264100601</v>
+        <v>76.169949850313</v>
       </c>
       <c r="S4">
-        <v>0.02281889992004868</v>
+        <v>0.01608631663691104</v>
       </c>
       <c r="T4">
-        <v>0.02281889992004868</v>
+        <v>0.01608631663691104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.702361</v>
       </c>
       <c r="I5">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="J5">
-        <v>0.1153892343949327</v>
+        <v>0.1140306016422357</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N5">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O5">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P5">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q5">
-        <v>6.597072563989111</v>
+        <v>5.913878371358223</v>
       </c>
       <c r="R5">
-        <v>59.373653075902</v>
+        <v>53.224905342224</v>
       </c>
       <c r="S5">
-        <v>0.01919223388113238</v>
+        <v>0.01124055722745254</v>
       </c>
       <c r="T5">
-        <v>0.01919223388113238</v>
+        <v>0.01124055722745254</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.794841333333333</v>
+        <v>1.819015666666667</v>
       </c>
       <c r="H6">
-        <v>5.384524</v>
+        <v>5.457047</v>
       </c>
       <c r="I6">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577642</v>
       </c>
       <c r="J6">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577643</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.59233966666666</v>
+        <v>179.7005413333333</v>
       </c>
       <c r="N6">
-        <v>277.777019</v>
+        <v>539.101624</v>
       </c>
       <c r="O6">
-        <v>0.5465415277631132</v>
+        <v>0.7012656334041908</v>
       </c>
       <c r="P6">
-        <v>0.5465415277631133</v>
+        <v>0.7012656334041907</v>
       </c>
       <c r="Q6">
-        <v>166.1885583837729</v>
+        <v>326.8780999938143</v>
       </c>
       <c r="R6">
-        <v>1495.697025453956</v>
+        <v>2941.902899944328</v>
       </c>
       <c r="S6">
-        <v>0.4834765193094907</v>
+        <v>0.6212998913160873</v>
       </c>
       <c r="T6">
-        <v>0.4834765193094908</v>
+        <v>0.6212998913160873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.794841333333333</v>
+        <v>1.819015666666667</v>
       </c>
       <c r="H7">
-        <v>5.384524</v>
+        <v>5.457047</v>
       </c>
       <c r="I7">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577642</v>
       </c>
       <c r="J7">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577643</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>45.42519</v>
       </c>
       <c r="O7">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="P7">
-        <v>0.08937655401050183</v>
+        <v>0.05908927597267952</v>
       </c>
       <c r="Q7">
-        <v>27.17700286217334</v>
+        <v>27.54304409043667</v>
       </c>
       <c r="R7">
-        <v>244.59302575956</v>
+        <v>247.88739681393</v>
       </c>
       <c r="S7">
-        <v>0.07906346187037268</v>
+        <v>0.05235129028291077</v>
       </c>
       <c r="T7">
-        <v>0.07906346187037268</v>
+        <v>0.05235129028291078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.794841333333333</v>
+        <v>1.819015666666667</v>
       </c>
       <c r="H8">
-        <v>5.384524</v>
+        <v>5.457047</v>
       </c>
       <c r="I8">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577642</v>
       </c>
       <c r="J8">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.50281533333334</v>
+        <v>36.14947766666667</v>
       </c>
       <c r="N8">
-        <v>100.508446</v>
+        <v>108.448433</v>
       </c>
       <c r="O8">
-        <v>0.1977558828577406</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="P8">
-        <v>0.1977558828577405</v>
+        <v>0.1410701724382803</v>
       </c>
       <c r="Q8">
-        <v>60.13223774330045</v>
+        <v>65.75646621748345</v>
       </c>
       <c r="R8">
-        <v>541.190139689704</v>
+        <v>591.808195957351</v>
       </c>
       <c r="S8">
-        <v>0.1749369829376919</v>
+        <v>0.1249838558013692</v>
       </c>
       <c r="T8">
-        <v>0.1749369829376919</v>
+        <v>0.1249838558013693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.794841333333333</v>
+        <v>1.819015666666667</v>
       </c>
       <c r="H9">
-        <v>5.384524</v>
+        <v>5.457047</v>
       </c>
       <c r="I9">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577642</v>
       </c>
       <c r="J9">
-        <v>0.8846107656050674</v>
+        <v>0.8859693983577643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.17812733333333</v>
+        <v>25.25999466666667</v>
       </c>
       <c r="N9">
-        <v>84.53438199999999</v>
+        <v>75.779984</v>
       </c>
       <c r="O9">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="P9">
-        <v>0.1663260353686444</v>
+        <v>0.09857491818484938</v>
       </c>
       <c r="Q9">
-        <v>50.57526763379644</v>
+        <v>45.94832603858312</v>
       </c>
       <c r="R9">
-        <v>455.1774087041679</v>
+        <v>413.534934347248</v>
       </c>
       <c r="S9">
-        <v>0.1471338014875121</v>
+        <v>0.08733436095739684</v>
       </c>
       <c r="T9">
-        <v>0.1471338014875121</v>
+        <v>0.08733436095739686</v>
       </c>
     </row>
   </sheetData>
